--- a/src/attributions/attributions_ig_traj_201.xlsx
+++ b/src/attributions/attributions_ig_traj_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG5"/>
+  <dimension ref="A1:GG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,181 +1573,181 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.3478751489252305</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.017228276086884</v>
+        <v>0.5347117314827933</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8138847638429926</v>
+        <v>0.03846060129794519</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3550948879975584</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.003249170023485482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9662368472969416</v>
+        <v>0.3312023990736911</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4310452164871994</v>
+        <v>-0.0119407342066623</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.293537158256605</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0</v>
+        <v>-0.08126789538816524</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2426030263888174</v>
+        <v>0.2319115838128188</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.02236609156352166</v>
+        <v>0.02229968846715871</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.126386981626871</v>
+        <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>-0.01811756018467681</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.02221225662895078</v>
+        <v>0.04315382095389502</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.07152957719915901</v>
+        <v>-0.0558888762692844</v>
       </c>
       <c r="AG3" t="n">
         <v>-0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.4405625169446846</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.06272069993488975</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2413290769788017</v>
+        <v>-0.1348934363494607</v>
       </c>
       <c r="AN3" t="n">
         <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0352178920603483</v>
+        <v>-0.1349081371469777</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.01855890030593417</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0.01198833505137356</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3465888008031888</v>
+        <v>0.3411621414040661</v>
       </c>
       <c r="AW3" t="n">
         <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.1371093141522981</v>
+        <v>0.36437183416922</v>
       </c>
       <c r="AY3" t="n">
         <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.2833455956821428</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>-0.1555094476034174</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.3476926012362099</v>
+        <v>0.1215185890496753</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.506832935849672</v>
+        <v>-0.02871284973655372</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
@@ -1756,28 +1756,28 @@
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1668411681346835</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>-0.1305412044347815</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.4666897239657959</v>
+        <v>0.1432047624001921</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.2667293975355534</v>
+        <v>0.3589876543179535</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
@@ -1786,211 +1786,211 @@
         <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.07127069064471482</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>-0.02689011654727566</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.1945448721754881</v>
+        <v>0.1218826654801446</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.538613150000565</v>
+        <v>0.27479582647061</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.1637521008158264</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.04679456193756956</v>
       </c>
       <c r="CE3" t="n">
         <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.2153014299693136</v>
+        <v>-0.1299689629682568</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.164964349841723</v>
+        <v>-0.05089389711395803</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.04952308639762277</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>-0.1731456978853478</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.2246212567455307</v>
+        <v>0.08178271362019554</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1747819806107463</v>
+        <v>-0.2835191101381911</v>
       </c>
       <c r="CR3" t="n">
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
         <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.2415711048908998</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>0.03001111823349641</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.2252956163996108</v>
+        <v>-0.1162858318855579</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2723930505068687</v>
+        <v>0.0269213194622357</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.1051415430769992</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>0.1071392508230645</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.1667529404074425</v>
+        <v>0.008011643797800432</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.006632808872141677</v>
+        <v>0.02923991452372426</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.004399001400507954</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0.2458835054716975</v>
       </c>
       <c r="DO3" t="n">
         <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.05140090863421534</v>
+        <v>-0.03688329911013297</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.0255929657041663</v>
+        <v>-0.1700991664123914</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.03702510677816739</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>-0.07001110258327128</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.001049710618839696</v>
+        <v>-0.0018169823791872</v>
       </c>
       <c r="DZ3" t="n">
         <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02467854426565086</v>
+        <v>-0.1487931527748858</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.09325171027470909</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.007975981419832589</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.2935755852304684</v>
+        <v>-0.2800634853865004</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.141765888190577</v>
+        <v>0.006697277721781415</v>
       </c>
       <c r="EK3" t="n">
         <v>-0</v>
@@ -2002,22 +2002,22 @@
         <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.01286069209859743</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>-0.14237081729651</v>
       </c>
       <c r="EP3" t="n">
         <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.04526285728382563</v>
+        <v>-0.07311475410337301</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.1307606355330291</v>
+        <v>-0.05912778880099232</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
@@ -2029,49 +2029,49 @@
         <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.07787456137809999</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.01672749802053668</v>
       </c>
       <c r="EY3" t="n">
         <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.2351203989883902</v>
+        <v>-0.1243098307548618</v>
       </c>
       <c r="FA3" t="n">
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.2012203133793002</v>
+        <v>0.01241552966454031</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.1134640523944413</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>0.1172816065702273</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.2293709098298078</v>
+        <v>-0.008931537067722836</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.3054189008240236</v>
+        <v>0.1026005820474366</v>
       </c>
       <c r="FL3" t="n">
         <v>-0</v>
@@ -2080,28 +2080,28 @@
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.2099350372624617</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>-0.009206128737085477</v>
       </c>
       <c r="FQ3" t="n">
         <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0.1820164351089719</v>
+        <v>-0.0005007494140031953</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.009241635484298943</v>
+        <v>0.000411127832136364</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.002047997012082867</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.03812110888608097</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.1346297816285874</v>
+        <v>0.2158075139999436</v>
       </c>
       <c r="GB3" t="n">
         <v>-0</v>
@@ -2128,16 +2128,16 @@
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.1624223223403976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,16 +2145,16 @@
         <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.045352739247071</v>
+        <v>-0.4120869377044308</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6064405327225462</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0.2980519456964148</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1989252507332256</v>
+        <v>0.275984372170656</v>
       </c>
       <c r="F4" t="n">
         <v>-0</v>
@@ -2166,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.197084484807611</v>
+        <v>-0.1824506699301874</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.6881815125191075</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0.1666111059865681</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.002532500252575471</v>
+        <v>0.238159781154707</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
@@ -2190,136 +2190,136 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1718617920552513</v>
+        <v>-0.168722121471384</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.03508894673112728</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.05004899892138277</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002921643050410423</v>
+        <v>0.08120806454080912</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.18166769047014</v>
+        <v>-0.1206205903413297</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.0697313120814702</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.04722516003742221</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.03163735612729569</v>
+        <v>-0.03802579889457813</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
         <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3507327471839164</v>
+        <v>-0.1672684010195332</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.4001415707434108</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>-0.02961315862396113</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.08087780113489253</v>
+        <v>0.1028980855486517</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.5491308889910479</v>
+        <v>-0.4802007332999901</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.3167485480457057</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0.1898613871468412</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01944321936083059</v>
+        <v>0.07836962770515005</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
         <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.2356289401668955</v>
+        <v>-0.03023133438096697</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.2773047286378896</v>
+        <v>-0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.02339879976206542</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.2574722676431463</v>
+        <v>0.3549470039696818</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
@@ -2328,55 +2328,55 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.09116129463089598</v>
+        <v>0.00911920600749175</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.1140797930062106</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0.04962031504633185</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2900519915970959</v>
+        <v>-0.0704648311385884</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.2672874147364649</v>
+        <v>-0.2375004639986642</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.3130739325101435</v>
+        <v>-0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.07754881491544717</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.0778438802932986</v>
+        <v>0.1938422651544043</v>
       </c>
       <c r="BZ4" t="n">
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
@@ -2388,22 +2388,22 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.2410473176530862</v>
+        <v>0.09986702530477073</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.06364918732685579</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0.02950581103074137</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.0003692724610010072</v>
+        <v>-0.02377124842224986</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>-0</v>
@@ -2415,49 +2415,49 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.1698403702875</v>
+        <v>-0.06488571957229829</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.106169361037054</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0.06456613589241621</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.02238038933292444</v>
+        <v>0.02537455315471836</v>
       </c>
       <c r="CR4" t="n">
         <v>-0</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.1875544924312671</v>
+        <v>0.08803227356162346</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.03250628394663318</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>-0.06027341610035197</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.06248449499336069</v>
+        <v>-0.01910588952759533</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.3262593095632835</v>
+        <v>0.1271601830982305</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.06598078843533906</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0.0004791189603886421</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.008190322173726877</v>
+        <v>-0.00022475651774209</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2487,7 +2487,7 @@
         <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>-0</v>
@@ -2496,79 +2496,79 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.1201732588969981</v>
+        <v>0.1795472990511877</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.192187490101856</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>-0.07291969136316297</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.2094524903587632</v>
+        <v>0.003891964142108996</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.08056286766602364</v>
+        <v>-0.004813021628795083</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.2153596035631182</v>
+        <v>-0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>0.09461997915210624</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.0606771113610056</v>
+        <v>0.1028871297667648</v>
       </c>
       <c r="EB4" t="n">
         <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.08080577134479421</v>
+        <v>-0.1013186474106584</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.1834296389231009</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>-0.117079975302681</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.05752687742630877</v>
+        <v>-0.04660219521040106</v>
       </c>
       <c r="EK4" t="n">
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,70 +2577,70 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.02292513180207407</v>
+        <v>0.07800380128926875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.05805636361569692</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0.03607018265214927</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1387332565061989</v>
+        <v>0.05229241799637385</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.1650536770508135</v>
+        <v>0.07486026708867133</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.07911282994346176</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0.0533898167118099</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.04246487098646985</v>
+        <v>-0.01682477313963701</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.2588794540779185</v>
+        <v>0.001829189904588714</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.33036226768034</v>
+        <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0.1482145584436951</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.03665701215778135</v>
+        <v>-0.03571050618731016</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
@@ -2655,46 +2655,46 @@
         <v>-0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.3285640070739079</v>
+        <v>-0.006016997711665722</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.02564813696495878</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>0.01833644203126089</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.005158535070851494</v>
+        <v>0.002834252159055476</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0.03206705184826263</v>
+        <v>0.02696263321801111</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.09285615502000399</v>
+        <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0.08331838697230903</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD4" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,25 +2714,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.4203970612742267</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2381725178332416</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0.273264130438886</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,43 +2741,43 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.3101477086637015</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.2222121562054488</v>
       </c>
       <c r="N5" t="n">
-        <v>-0</v>
+        <v>0.2696280773763496</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.1284318551118342</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.01904545226727132</v>
       </c>
       <c r="W5" t="n">
-        <v>-0</v>
+        <v>-0.07335317270094205</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.1704161127400031</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0.05715818951733054</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0</v>
+        <v>-0.02356619343079017</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2813,61 +2813,61 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.04896102394264443</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.04477912547546925</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0</v>
+        <v>0.07869489294520983</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.3401131025108767</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>0.06970047537053838</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0</v>
+        <v>0.008627081229880568</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
@@ -2876,49 +2876,49 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.008829065649101577</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>0.2161857308369209</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0</v>
+        <v>0.3428484569850302</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.09089568020081853</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0.02630949504052616</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0</v>
+        <v>-0.09840232868604756</v>
       </c>
       <c r="BQ5" t="n">
         <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.2637835255097385</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.005855053553077499</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0</v>
+        <v>0.04968715169096643</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.0994917647820658</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0.05981657916910861</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0</v>
+        <v>-0.001654412517811515</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -2975,28 +2975,28 @@
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.03904433531414777</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0.08836504795522895</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0</v>
+        <v>0.08395989053667714</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
@@ -3011,124 +3011,124 @@
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>0.09909492014780513</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0.08172709137269067</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0</v>
+        <v>-0.01289019254973816</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.1913335792505671</v>
       </c>
       <c r="DG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0.09039708995659418</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0</v>
+        <v>-0.01612744328293991</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.05315386549332303</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>0.03945751839556569</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0</v>
+        <v>0.07524115673016218</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>0.1090832463548563</v>
       </c>
       <c r="DY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.1120631691043394</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0</v>
+        <v>0.04292370431063442</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.06261320051121112</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0.05128472242952131</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0</v>
+        <v>-0.1280042182459941</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
@@ -3143,25 +3143,25 @@
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.01090740335426707</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.03305469095304838</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0</v>
+        <v>0.02963720384945741</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -3170,46 +3170,46 @@
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.1021779611874328</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0.07113789239965995</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0</v>
+        <v>-0.01393453093228759</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.07244239177882095</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.1034012052979759</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0</v>
+        <v>-0.05343306529002467</v>
       </c>
       <c r="FL5" t="n">
         <v>0</v>
@@ -3218,52 +3218,52 @@
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.01786479763664515</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>0.03866397923095361</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0</v>
+        <v>-0.003043364984106816</v>
       </c>
       <c r="FU5" t="n">
         <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
         <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.06642362777887707</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>0.06278896293088311</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
         <v>0</v>
@@ -3272,9 +3272,2854 @@
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4944175880602533</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1198894349094563</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.4544460008606231</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4274607518904434</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.04888874850773579</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.4157528138401824</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.04063933094066322</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.08967454752124288</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.01598316809495008</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.02252847513618931</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.008390708569729568</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.03544500394326719</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.08318877872611036</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.0007077278191615895</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.08540701532056351</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.4218259438604975</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-0.06897385573744649</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-0.2205919160920708</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.1099878069610339</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-0.1555668212240102</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-0.2031233903851091</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.1451342674025795</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>-0.002556688646453596</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.0211355153587851</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.2207219932939731</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>-0.06717633274302381</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>-0.129854641674758</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>-0.08697241061607046</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>-0.005260933946613045</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.1102993405917673</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>-4.43257607350541e-05</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.01466065102031537</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>-0.02412898156694127</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>-0.0687753690642883</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>-0.001385798239291539</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0.1157981227674384</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-0.04431739291869521</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.0469190519338525</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.0004228659813447472</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.006641109162840441</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.03409219115504388</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>-0.007839961212285225</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>-0.05630551712360807</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.01739268735557954</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.05349210144062201</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>-0.1002099334802206</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.02829821554655291</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0.1234794527568776</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>-0.03354367535041377</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>-0.01138240262551658</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0.07389758701291133</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>-0.06650577815978947</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0.00686835868898876</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0.1058259541203652</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>-0.005797606991718213</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>-0.008269053209006944</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0.05044232467575337</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0.005420703803291718</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>-0.008628367138022312</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0.03001674149327355</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0.04279250744070507</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>-0.05313188342164341</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1465852228526663</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.07399542798630397</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.0709790340585276</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1108856173884611</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.04595669083434802</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.06470193804116534</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.01286623979709052</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.006100835549428585</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.009342836230473214</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.004928984544738137</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.01258156439247423</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.01050107998378377</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.009158633067053728</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.009344143710511673</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.01452169277157193</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.1019198328055797</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.02807047747016878</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.02016552463268135</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.03040979956368515</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.05200338909831748</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.06011200255662029</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.03426528983123459</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.01557273011220122</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.01534036555480199</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.047368182566852</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>-0.01165554142871243</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>-0.01167342535910132</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>-0.02434920044063748</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.006277110844750866</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.01747917093761229</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.0008711438210970087</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>-0.004870258777359961</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>-0.01055356244104783</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>-0.01837875031968109</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.005788378002291633</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.01825785415799794</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-0.03055706956215015</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.04795676047248516</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.01313787130993649</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-0.004916013979101529</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.01919661233951572</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>-0.007774198957988798</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>-0.02846097191678534</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.01360604075316584</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.01789462456361692</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>-0.02911864151567194</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.008480714679931127</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.01387669463880132</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>-0.01260822431150292</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.003845554478425642</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>-0.01036215508293767</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>-0.01930000018848992</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.008683513147103507</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.02122334911163535</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>-0.01604457638516874</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.01197799151554985</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0.01949669269291303</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0.0001186836000044023</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>-0.001333692896077636</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0.0182015524807463</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0.0001952809621877177</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>-0.00411468136418883</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.8502837428435279</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.05655871633976203</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.687231382981478</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.4323332666266763</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.1602354216972428</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.278894506970289</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.1922866802710226</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5082619239813235</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1915377317545275</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.2231365369000803</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1062409241909324</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.09126751785465746</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.1899579490643113</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.01888882982903044</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.06123801101473281</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.6097803001632807</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.6201411756746733</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.052831566551708</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.2060866365751479</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-0.1354846950335468</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.1952686044250534</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-0.03870840396197738</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.06466038365058653</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.1143795097060027</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>-0.4089227988679115</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.3257989605731144</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.6145798994091752</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.2339331298305126</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>-0.03677137526617377</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>-0.3353032623842591</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>-0.01918928072767162</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>-0.5706829987925043</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>-0.08236883473748149</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.2203005068442297</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>-0.03393527105203356</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>-0.3184503568692622</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-0.001021463966942377</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>-0.4784050070619013</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>-0.04168057656363482</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.1183995626040507</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>-0.1265712080371372</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>-0.09133203575488023</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0.05651170388601569</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.02092785148218939</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>-0.4458962471348428</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.150650987458159</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.1534375046047704</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>-0.2033266677291174</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.08454460904624655</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>-0.3250134762032604</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>-0.06627756881633352</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0.187822665324337</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>-0.08804884683926674</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>-0.2809320706643329</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>-0.09838211950112487</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0.08654835641166246</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>-0.003487209481427227</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0.02852771258249955</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>0.004379587628498551</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>-0.3123973185146371</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>-0.09610245220745987</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>-0.05448303746657592</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG10" t="n">
         <v>0</v>
       </c>
     </row>
